--- a/Online/PracticeAssignments/GIT HUB LINKS.xlsx
+++ b/Online/PracticeAssignments/GIT HUB LINKS.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t xml:space="preserve">PIAIC# </t>
   </si>
   <si>
-    <t>NAME</t>
+    <t xml:space="preserve">NAME </t>
   </si>
   <si>
     <t>EMAIL</t>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>omarasadiq14@gamil.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Omarasadiq</t>
   </si>
   <si>
     <t>PIAIC173597</t>
@@ -1915,17 +1918,19 @@
       <c r="D31" s="7">
         <v>3.334530156E9</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="7">
         <v>3.215667372E9</v>
@@ -1934,13 +1939,13 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="7">
         <v>3.132263334E9</v>
@@ -1949,13 +1954,13 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="7">
         <v>3.350351417E9</v>
@@ -1964,13 +1969,13 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="7">
         <v>3.158979259E9</v>
@@ -1979,13 +1984,13 @@
     </row>
     <row r="36">
       <c r="A36" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="7">
         <v>3.363876338E9</v>
@@ -1994,351 +1999,351 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="7">
         <v>3.083964365E9</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="7">
         <v>3.31255519E9</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="7">
         <v>3.132291441E9</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="7">
         <v>3.182410449E9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="7">
         <v>3.331410006E9</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="7">
         <v>3.450685765E9</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="7">
         <v>3.315169087E9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="31"/>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="7">
         <v>3.345444966E9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="7">
         <v>3.224627663E9</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="7">
         <v>3.324338464E9</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="7">
         <v>3.14320926E9</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="7">
         <v>3.425534367E9</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="7">
         <v>3.053610894E9</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" s="7">
         <v>3.41247709E9</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="7">
         <v>3.332424272E9</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="7">
         <v>3.016480704E9</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="7">
         <v>3.238338328E9</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D54" s="7">
         <v>3.138226974E9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D55" s="7">
         <v>3.351893129E9</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D56" s="7">
         <v>3.22461973E9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D57" s="7">
         <v>3.454041797E9</v>
@@ -2346,284 +2351,284 @@
     </row>
     <row r="58">
       <c r="A58" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" s="7">
         <v>3.018069822E9</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D59" s="7">
         <v>3.105395651E9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D60" s="7">
         <v>3.488262863E9</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D61" s="7">
         <v>3.315547727E9</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D62" s="7">
         <v>3.212103333E9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D63" s="37">
         <v>3.105810532E9</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64" s="7">
         <v>3.341325234E9</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D65" s="7">
         <v>3.064422295E9</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D66" s="7">
         <v>3.005259093E9</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D67" s="7">
         <v>3.095675289E9</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" s="1">
         <v>3.114410666E9</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D69" s="7">
         <v>3.467868789E9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D70" s="7">
         <v>3.453968894E9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D71" s="7">
         <v>3.242926776E9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D72" s="17">
         <v>3.120215244E9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F73" s="44"/>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D74" s="7">
         <v>3.038657506E9</v>
@@ -2631,130 +2636,130 @@
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D75" s="7">
         <v>3.33515288E9</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D76" s="7">
         <v>3.112912236E9</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D77" s="7">
         <v>3.101075191E9</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D78" s="7">
         <v>3.095245112E9</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D79" s="7">
         <v>3.333107495E9</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D80" s="7">
         <v>3.464472735E9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D81" s="7">
         <v>3.213939122E9</v>
       </c>
       <c r="E81" s="46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="47"/>
       <c r="B82" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D82" s="7">
         <v>3.332273043E9</v>
@@ -2762,67 +2767,67 @@
     </row>
     <row r="83">
       <c r="A83" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D83" s="7">
         <v>9.71507842456E11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87">
@@ -6492,57 +6497,58 @@
     <hyperlink r:id="rId3" ref="E8"/>
     <hyperlink r:id="rId4" ref="E19"/>
     <hyperlink r:id="rId5" ref="E24"/>
-    <hyperlink r:id="rId6" ref="E37"/>
-    <hyperlink r:id="rId7" ref="E38"/>
-    <hyperlink r:id="rId8" ref="E39"/>
-    <hyperlink r:id="rId9" ref="E40"/>
-    <hyperlink r:id="rId10" ref="E41"/>
-    <hyperlink r:id="rId11" ref="E42"/>
-    <hyperlink r:id="rId12" ref="E43"/>
-    <hyperlink r:id="rId13" ref="E44"/>
-    <hyperlink r:id="rId14" ref="E45"/>
-    <hyperlink r:id="rId15" ref="E46"/>
-    <hyperlink r:id="rId16" ref="E47"/>
-    <hyperlink r:id="rId17" ref="E48"/>
-    <hyperlink r:id="rId18" ref="E49"/>
-    <hyperlink r:id="rId19" ref="E50"/>
-    <hyperlink r:id="rId20" ref="E51"/>
-    <hyperlink r:id="rId21" ref="E52"/>
-    <hyperlink r:id="rId22" ref="E53"/>
-    <hyperlink r:id="rId23" ref="E54"/>
-    <hyperlink r:id="rId24" ref="E55"/>
-    <hyperlink r:id="rId25" ref="E56"/>
-    <hyperlink r:id="rId26" ref="E58"/>
-    <hyperlink r:id="rId27" ref="E59"/>
-    <hyperlink r:id="rId28" ref="E60"/>
-    <hyperlink r:id="rId29" ref="E61"/>
-    <hyperlink r:id="rId30" ref="E62"/>
-    <hyperlink r:id="rId31" ref="E63"/>
-    <hyperlink r:id="rId32" ref="E64"/>
-    <hyperlink r:id="rId33" ref="E65"/>
-    <hyperlink r:id="rId34" ref="E66"/>
-    <hyperlink r:id="rId35" ref="E67"/>
-    <hyperlink r:id="rId36" ref="E68"/>
-    <hyperlink r:id="rId37" ref="E69"/>
-    <hyperlink r:id="rId38" ref="E70"/>
-    <hyperlink r:id="rId39" ref="E71"/>
-    <hyperlink r:id="rId40" ref="E72"/>
-    <hyperlink r:id="rId41" ref="E73"/>
-    <hyperlink r:id="rId42" ref="E75"/>
-    <hyperlink r:id="rId43" ref="E76"/>
-    <hyperlink r:id="rId44" ref="E77"/>
-    <hyperlink r:id="rId45" ref="E78"/>
-    <hyperlink r:id="rId46" ref="E79"/>
-    <hyperlink r:id="rId47" ref="E80"/>
-    <hyperlink r:id="rId48" ref="E81"/>
-    <hyperlink r:id="rId49" ref="E83"/>
-    <hyperlink r:id="rId50" ref="E84"/>
-    <hyperlink r:id="rId51" ref="E85"/>
+    <hyperlink r:id="rId6" ref="E31"/>
+    <hyperlink r:id="rId7" ref="E37"/>
+    <hyperlink r:id="rId8" ref="E38"/>
+    <hyperlink r:id="rId9" ref="E39"/>
+    <hyperlink r:id="rId10" ref="E40"/>
+    <hyperlink r:id="rId11" ref="E41"/>
+    <hyperlink r:id="rId12" ref="E42"/>
+    <hyperlink r:id="rId13" ref="E43"/>
+    <hyperlink r:id="rId14" ref="E44"/>
+    <hyperlink r:id="rId15" ref="E45"/>
+    <hyperlink r:id="rId16" ref="E46"/>
+    <hyperlink r:id="rId17" ref="E47"/>
+    <hyperlink r:id="rId18" ref="E48"/>
+    <hyperlink r:id="rId19" ref="E49"/>
+    <hyperlink r:id="rId20" ref="E50"/>
+    <hyperlink r:id="rId21" ref="E51"/>
+    <hyperlink r:id="rId22" ref="E52"/>
+    <hyperlink r:id="rId23" ref="E53"/>
+    <hyperlink r:id="rId24" ref="E54"/>
+    <hyperlink r:id="rId25" ref="E55"/>
+    <hyperlink r:id="rId26" ref="E56"/>
+    <hyperlink r:id="rId27" ref="E58"/>
+    <hyperlink r:id="rId28" ref="E59"/>
+    <hyperlink r:id="rId29" ref="E60"/>
+    <hyperlink r:id="rId30" ref="E61"/>
+    <hyperlink r:id="rId31" ref="E62"/>
+    <hyperlink r:id="rId32" ref="E63"/>
+    <hyperlink r:id="rId33" ref="E64"/>
+    <hyperlink r:id="rId34" ref="E65"/>
+    <hyperlink r:id="rId35" ref="E66"/>
+    <hyperlink r:id="rId36" ref="E67"/>
+    <hyperlink r:id="rId37" ref="E68"/>
+    <hyperlink r:id="rId38" ref="E69"/>
+    <hyperlink r:id="rId39" ref="E70"/>
+    <hyperlink r:id="rId40" ref="E71"/>
+    <hyperlink r:id="rId41" ref="E72"/>
+    <hyperlink r:id="rId42" ref="E73"/>
+    <hyperlink r:id="rId43" ref="E75"/>
+    <hyperlink r:id="rId44" ref="E76"/>
+    <hyperlink r:id="rId45" ref="E77"/>
+    <hyperlink r:id="rId46" ref="E78"/>
+    <hyperlink r:id="rId47" ref="E79"/>
+    <hyperlink r:id="rId48" ref="E80"/>
+    <hyperlink r:id="rId49" ref="E81"/>
+    <hyperlink r:id="rId50" ref="E83"/>
+    <hyperlink r:id="rId51" ref="E84"/>
+    <hyperlink r:id="rId52" ref="E85"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId52"/>
+  <drawing r:id="rId53"/>
 </worksheet>
 </file>
 
